--- a/biology/Zoologie/Dryocalamus_davisonii/Dryocalamus_davisonii.xlsx
+++ b/biology/Zoologie/Dryocalamus_davisonii/Dryocalamus_davisonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dryocalamus davisonii ou Lycodon davisonii[1] est une espèce de serpents de la famille des Colubridae[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dryocalamus davisonii ou Lycodon davisonii est une espèce de serpents de la famille des Colubridae.
 Cette couleuvre mord rarement et n'est pas dangereuse pour l'homme.
 </t>
         </is>
@@ -512,10 +524,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lycodon davisonii vit dans les arbres, les buissons et au sol des forêts tropicales.
-Cette espèce se rencontre[2]  en Birmanie, au Cambodge, au Laos, en Thaïlande et au Viêt Nam.
+Cette espèce se rencontre  en Birmanie, au Cambodge, au Laos, en Thaïlande et au Viêt Nam.
 </t>
         </is>
       </c>
@@ -544,12 +558,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce serpent a une taille de 60 cm à 1 m de long.
 Son corps est noir avec des bandes blanches ou vert pâle. Son ventre est blanc.
-Dans sa description[3] Blanford indique que le spécimen en sa possession mesure 71 cm dont 15 cm pour la queue.
-La couleuvre dryocalamus davisonii chasse la nuit pour se nourrir des lézards et des geckos[4].
+Dans sa description Blanford indique que le spécimen en sa possession mesure 71 cm dont 15 cm pour la queue.
+La couleuvre dryocalamus davisonii chasse la nuit pour se nourrir des lézards et des geckos.
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en l'honneur de M. Davison qui a collecté, dans la région de Tavoy en Birmanie, le spécimen étudié par  Blanford.
 </t>
@@ -609,7 +627,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Blanford, 1878 : Notes on some Reptilia from the Himalayas and Burma. Journal of the Asiatic Society of Bengal, vol. 2, p. 125-131 (texte intégral).</t>
         </is>
